--- a/docs/画面項目定義書/mo_image_detail_edit.xlsx
+++ b/docs/画面項目定義書/mo_image_detail_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3491AD-0A60-4A3F-A9CD-85785561DDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9770B8-14CA-4824-94BB-01A0F0BEBE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>日本工学院</t>
   </si>
@@ -81,33 +81,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>入力覧「イメージ名」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧タイトル「イメージ名」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>イメージ詳細</t>
     <rPh sb="4" eb="6">
       <t>ショウサイ</t>
@@ -129,38 +102,7 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>イメージダッシュボードへ遷移</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>イメージ名・サイズ・説明を編集可能になる</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ヘンシュウカノウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>サイズ</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザーオブジェクトより</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -178,60 +120,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>入力覧タイトル「説明」</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>入力覧「説明」</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>編集ボタン押下後、入力が可能になり、
-表示が更新される</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>編集ボタン押下後、入力が可能になり、
-表示が更新される</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>表示</t>
     <phoneticPr fontId="8"/>
   </si>
@@ -275,6 +163,123 @@
   </si>
   <si>
     <t>mo_image_detail_edit.html</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージオブジェクトより</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>・イメージオブジェクトを取得して表示
+・編集ボタン押下後、入力が可能になり、
+表示が更新される</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックスタイトル「イメージ名」</t>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックス「イメージ名」</t>
+    <rPh sb="13" eb="14">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックスタイトル「説明」</t>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テキストボックス「説明」</t>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>保存ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>編集内容を確定し、編集モードを終了する</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>・イメージ名・サイズ・説明を編集可能になる
+・保存ボタンを表示する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ヘンシュウカノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージダッシュボードへ遷移する</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージオブジェクトを取得して表示する</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イメージオブジェクトを取得して表示する</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -670,9 +675,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +685,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1134,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
@@ -1187,10 +1192,10 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1200,12 +1205,12 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="39"/>
+      <c r="A6" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="38"/>
       <c r="C6" s="11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
@@ -1256,47 +1261,45 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="13">
+    <row r="10" spans="1:7" ht="24">
       <c r="A10" s="24">
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13">
       <c r="A11" s="21">
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30" t="s">
-        <v>22</v>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13">
@@ -1304,101 +1307,103 @@
         <v>4</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" ht="26">
+      <c r="G12" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="21">
         <v>5</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13">
+      <c r="B13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" ht="36">
       <c r="A14" s="24">
         <v>6</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="30" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="24">
       <c r="A15" s="21">
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="G15" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13">
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" ht="36">
       <c r="A16" s="24">
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="28" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="13">
       <c r="A17" s="21">
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="28" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
@@ -1408,87 +1413,97 @@
         <v>10</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+        <v>29</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="13">
       <c r="A19" s="21">
         <v>11</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="13">
       <c r="A20" s="24">
         <v>12</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="B20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="13">
       <c r="A21" s="21">
         <v>13</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" ht="13">
       <c r="A22" s="24">
         <v>14</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" ht="13">
       <c r="A23" s="21">
         <v>15</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" ht="13">
       <c r="A24" s="24">
         <v>16</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
     </row>
@@ -1496,10 +1511,10 @@
       <c r="A25" s="21">
         <v>17</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
     </row>
